--- a/2020项目对接/12-3 安享百万住院垫付/需求文档/预约接口字段.xlsx
+++ b/2020项目对接/12-3 安享百万住院垫付/需求文档/预约接口字段.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>字段</t>
   </si>
@@ -142,31 +142,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>特别约定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>免赔额余额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新理赔报案号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>特别约定</t>
+    <t>材料回传使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次缴费日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般医疗免赔额余额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特定疾病免赔额余额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重大疾病免赔额余额</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -205,12 +209,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -283,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -306,9 +316,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,6 +325,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,6 +344,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,7 +659,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,239 +715,241 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>24</v>
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="15"/>
-    </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="A25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="12"/>
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="13"/>
+      <c r="A29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="C21:C29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020项目对接/12-3 安享百万住院垫付/需求文档/预约接口字段.xlsx
+++ b/2020项目对接/12-3 安享百万住院垫付/需求文档/预约接口字段.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>字段</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名：hospitalCode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -289,11 +301,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -331,6 +367,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,6 +385,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,9 +395,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +712,8 @@
     <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -732,7 +778,7 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -743,7 +789,7 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -752,7 +798,7 @@
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -761,7 +807,7 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -770,7 +816,7 @@
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -779,7 +825,7 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -788,7 +834,7 @@
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -799,7 +845,7 @@
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -808,7 +854,7 @@
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -817,7 +863,7 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -826,130 +872,142 @@
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="B20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="C26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C30" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="C22:C30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
